--- a/ProyectoAgo20/DistribucionProyecto2021.xlsx
+++ b/ProyectoAgo20/DistribucionProyecto2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F738AFD-7FF8-4CF9-B58F-75DA555DBE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE010187-44AA-4740-8E59-CDE0192EB7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:H34"/>
+      <selection activeCell="A48" sqref="A48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ProyectoAgo20/DistribucionProyecto2021.xlsx
+++ b/ProyectoAgo20/DistribucionProyecto2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE010187-44AA-4740-8E59-CDE0192EB7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C49C2D-6156-4BA1-B5CA-0191CF75393C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -816,1278 +816,1353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D540C2-DE11-4CA0-8629-81203C1F6428}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:H48"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" customWidth="1"/>
+    <col min="2" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>115</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>26</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>111</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>60</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>150</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>114</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>45</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>149</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>27</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>93</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>49</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>120</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>284</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>80</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>23</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>116</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>25</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>38</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>303</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>10</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>49</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>62</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>66</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>284</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>116</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <v>41</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>48</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>115</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>26</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>111</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>60</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>150</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>114</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>45</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>149</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>27</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <v>116</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <v>25</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <v>38</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>14</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>284</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <v>80</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>23</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>16</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>93</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <v>49</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>120</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>23</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>45</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <v>149</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <v>27</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>8</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="8">
         <v>60</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>150</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <v>114</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>11</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="8">
         <v>115</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>26</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <v>111</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>4</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>116</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>41</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <v>48</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>4</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>62</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <v>66</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="8">
         <v>284</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <v>19</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F25" s="8">
         <v>303</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>10</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <v>49</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <v>28</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="8">
+      <c r="F26" s="8">
         <v>116</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>25</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="8">
         <v>38</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>14</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="8">
+      <c r="F27" s="8">
         <v>284</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G27" s="8">
         <v>80</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H27" s="8">
         <v>23</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>16</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="8">
+      <c r="F28" s="8">
         <v>93</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <v>49</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H28" s="8">
         <v>120</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <v>23</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="8">
         <v>45</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
         <v>149</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H29" s="8">
         <v>27</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <v>8</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="8">
+      <c r="F30" s="8">
         <v>60</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <v>150</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H30" s="8">
         <v>114</v>
       </c>
-      <c r="H30" s="8">
+      <c r="I30" s="8">
         <v>11</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F31" s="8">
         <v>115</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <v>26</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <v>111</v>
       </c>
-      <c r="H31" s="8">
+      <c r="I31" s="8">
         <v>4</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2">
+        <v>15</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="8">
+      <c r="F34" s="8">
         <v>116</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <v>25</v>
       </c>
-      <c r="G34" s="8">
+      <c r="H34" s="8">
         <v>38</v>
       </c>
-      <c r="H34" s="8">
+      <c r="I34" s="8">
         <v>14</v>
       </c>
-      <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="8">
+      <c r="F35" s="8">
         <v>284</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <v>80</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H35" s="8">
         <v>23</v>
       </c>
-      <c r="H35" s="8">
+      <c r="I35" s="8">
         <v>16</v>
       </c>
-      <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="8">
+      <c r="F36" s="8">
         <v>93</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
         <v>49</v>
       </c>
-      <c r="G36" s="8">
+      <c r="H36" s="8">
         <v>120</v>
       </c>
-      <c r="H36" s="8">
+      <c r="I36" s="8">
         <v>23</v>
       </c>
-      <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="8">
+      <c r="F37" s="8">
         <v>45</v>
       </c>
-      <c r="F37" s="8">
+      <c r="G37" s="8">
         <v>149</v>
       </c>
-      <c r="G37" s="8">
+      <c r="H37" s="8">
         <v>27</v>
       </c>
-      <c r="H37" s="8">
+      <c r="I37" s="8">
         <v>8</v>
       </c>
-      <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="8">
+      <c r="F38" s="8">
         <v>60</v>
       </c>
-      <c r="F38" s="8">
+      <c r="G38" s="8">
         <v>150</v>
       </c>
-      <c r="G38" s="8">
+      <c r="H38" s="8">
         <v>114</v>
       </c>
-      <c r="H38" s="8">
+      <c r="I38" s="8">
         <v>11</v>
       </c>
-      <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="8">
+      <c r="F39" s="8">
         <v>115</v>
       </c>
-      <c r="F39" s="8">
+      <c r="G39" s="8">
         <v>26</v>
       </c>
-      <c r="G39" s="8">
+      <c r="H39" s="8">
         <v>111</v>
       </c>
-      <c r="H39" s="8">
+      <c r="I39" s="8">
         <v>4</v>
       </c>
-      <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="2">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="8">
+      <c r="F40" s="8">
         <v>116</v>
       </c>
-      <c r="F40" s="8">
+      <c r="G40" s="8">
         <v>41</v>
       </c>
-      <c r="G40" s="8">
+      <c r="H40" s="8">
         <v>48</v>
       </c>
-      <c r="H40" s="8">
+      <c r="I40" s="8">
         <v>4</v>
       </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="2">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="8">
+      <c r="F41" s="8">
         <v>62</v>
       </c>
-      <c r="F41" s="8">
+      <c r="G41" s="8">
         <v>66</v>
       </c>
-      <c r="G41" s="8">
+      <c r="H41" s="8">
         <v>284</v>
       </c>
-      <c r="H41" s="8">
+      <c r="I41" s="8">
         <v>19</v>
       </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="2">
+        <v>7</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="8">
+      <c r="F42" s="8">
         <v>303</v>
       </c>
-      <c r="F42" s="8">
+      <c r="G42" s="8">
         <v>10</v>
       </c>
-      <c r="G42" s="8">
+      <c r="H42" s="8">
         <v>49</v>
       </c>
-      <c r="H42" s="8">
+      <c r="I42" s="8">
         <v>28</v>
       </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="8">
+      <c r="F43" s="8">
         <v>116</v>
       </c>
-      <c r="F43" s="8">
+      <c r="G43" s="8">
         <v>25</v>
       </c>
-      <c r="G43" s="8">
+      <c r="H43" s="8">
         <v>38</v>
       </c>
-      <c r="H43" s="8">
+      <c r="I43" s="8">
         <v>14</v>
       </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="8">
+      <c r="F44" s="8">
         <v>284</v>
       </c>
-      <c r="F44" s="8">
+      <c r="G44" s="8">
         <v>80</v>
       </c>
-      <c r="G44" s="8">
+      <c r="H44" s="8">
         <v>23</v>
       </c>
-      <c r="H44" s="8">
+      <c r="I44" s="8">
         <v>16</v>
       </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="8">
+      <c r="F45" s="8">
         <v>93</v>
       </c>
-      <c r="F45" s="8">
+      <c r="G45" s="8">
         <v>49</v>
       </c>
-      <c r="G45" s="8">
+      <c r="H45" s="8">
         <v>120</v>
       </c>
-      <c r="H45" s="8">
+      <c r="I45" s="8">
         <v>23</v>
       </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="8">
+      <c r="F46" s="8">
         <v>45</v>
       </c>
-      <c r="F46" s="8">
+      <c r="G46" s="8">
         <v>149</v>
       </c>
-      <c r="G46" s="8">
+      <c r="H46" s="8">
         <v>27</v>
       </c>
-      <c r="H46" s="8">
+      <c r="I46" s="8">
         <v>8</v>
       </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="8">
+      <c r="F47" s="8">
         <v>60</v>
       </c>
-      <c r="F47" s="8">
+      <c r="G47" s="8">
         <v>150</v>
       </c>
-      <c r="G47" s="8">
+      <c r="H47" s="8">
         <v>114</v>
       </c>
-      <c r="H47" s="8">
+      <c r="I47" s="8">
         <v>11</v>
       </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="8">
+      <c r="F48" s="8">
         <v>115</v>
       </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
         <v>26</v>
       </c>
-      <c r="G48" s="8">
+      <c r="H48" s="8">
         <v>111</v>
       </c>
-      <c r="H48" s="8">
+      <c r="I48" s="8">
         <v>4</v>
       </c>
-      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
